--- a/capas/mapatonGTFS/Attributes.xlsx
+++ b/capas/mapatonGTFS/Attributes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValdezTorresYazminJe\Dropbox\DF_Hack\viajandoDF\public_html\testData\mapatonGTFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValdezTorresYazminJe\Dropbox\DF_Hack\viajandoDF\capas\mapatonGTFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$42</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -595,13 +598,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4:J9"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -663,7 +667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -727,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -735,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -743,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -761,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -769,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -777,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -785,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -793,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -801,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -809,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -817,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -825,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -833,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -841,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -849,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -857,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -870,7 +874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -878,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -886,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -894,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -902,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -910,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -918,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -926,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -934,7 +938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1040,6 +1044,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J42">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>